--- a/experimental results/e2000_Acrobot__compare.xlsx
+++ b/experimental results/e2000_Acrobot__compare.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="60">
   <si>
     <t>domain</t>
   </si>
@@ -73,70 +73,82 @@
     <t>SIFU5</t>
   </si>
   <si>
+    <t>[1,1,1] | [1,2,0] | [1,0,2] | [1,1,2]</t>
+  </si>
+  <si>
+    <t>[1,0,2] | [1,1,1] | [1,2,0] | [1,1,2]</t>
+  </si>
+  <si>
     <t>[1,1,2] | [1,1,1] | [1,2,0] | [1,0,2]</t>
   </si>
   <si>
-    <t>[1,1,1] | [1,1,2] | [1,0,2] | [1,2,0]</t>
+    <t>[1,2,0] | [1,0,2] | [1,1,1] | [1,1,2]</t>
   </si>
   <si>
-    <t>[1,0,2] | [1,1,1] | [1,1,2] | [1,2,0]</t>
-  </si>
-  <si>
-    <t>[1,2,0] | [1,1,2] | [1,1,1] | [1,0,2]</t>
+    <t>[1,1,2] | [1,2,0] | [1,0,2] | [1,1,1]</t>
   </si>
   <si>
     <t>[0,1,1]</t>
   </si>
   <si>
+    <t>[0,2,1] | [1,1,1] | [0,1,1] | [2,0,1]</t>
+  </si>
+  <si>
+    <t>[0,1,1] | [1,1,1] | [0,2,1] | [2,0,1]</t>
+  </si>
+  <si>
+    <t>[2,0,1] | [0,1,1] | [0,2,1] | [1,1,1]</t>
+  </si>
+  <si>
     <t>[0,1,1] | [2,0,1] | [0,2,1] | [1,1,1]</t>
+  </si>
+  <si>
+    <t>[0,2,1]</t>
+  </si>
+  <si>
+    <t>[1,1,1]</t>
+  </si>
+  <si>
+    <t>[0,2,1] | [1,1,1] | [2,0,1] | [0,1,1]</t>
+  </si>
+  <si>
+    <t>[2,0,1] | [0,2,1] | [0,1,1] | [1,1,1]</t>
+  </si>
+  <si>
+    <t>[2,0,1] | [0,2,1] | [1,1,1] | [0,1,1]</t>
+  </si>
+  <si>
+    <t>[2,0,1] | [0,1,1] | [1,1,1] | [0,2,1]</t>
+  </si>
+  <si>
+    <t>[1,1,1] | [0,2,1] | [0,1,1] | [2,0,1]</t>
+  </si>
+  <si>
+    <t>[1,0,2]</t>
+  </si>
+  <si>
+    <t>[1,2,0]</t>
+  </si>
+  <si>
+    <t>[1,1,2] | [1,2,0] | [1,1,1] | [1,0,2]</t>
+  </si>
+  <si>
+    <t>[1,1,2] | [1,1,1] | [1,0,2] | [1,2,0]</t>
+  </si>
+  <si>
+    <t>[1,2,0] | [1,1,1] | [1,0,2] | [1,1,2]</t>
+  </si>
+  <si>
+    <t>[1,0,2] | [1,2,0] | [1,1,1] | [1,1,2]</t>
   </si>
   <si>
     <t>[2,0,1]</t>
   </si>
   <si>
-    <t>[0,1,1] | [1,1,1] | [2,0,1] | [0,2,1]</t>
-  </si>
-  <si>
-    <t>[2,0,1] | [1,1,1] | [0,1,1] | [0,2,1]</t>
-  </si>
-  <si>
-    <t>[1,1,1] | [2,0,1] | [0,2,1] | [0,1,1]</t>
-  </si>
-  <si>
-    <t>[0,2,1]</t>
-  </si>
-  <si>
-    <t>[2,0,1] | [0,2,1] | [0,1,1] | [1,1,1]</t>
-  </si>
-  <si>
-    <t>[1,1,1] | [0,1,1] | [0,2,1] | [2,0,1]</t>
-  </si>
-  <si>
-    <t>[2,0,1] | [0,2,1] | [1,1,1] | [0,1,1]</t>
-  </si>
-  <si>
-    <t>[1,0,2]</t>
-  </si>
-  <si>
-    <t>[1,1,2] | [1,2,0] | [1,0,2] | [1,1,1]</t>
-  </si>
-  <si>
-    <t>[1,0,2] | [1,1,2] | [1,2,0] | [1,1,1]</t>
-  </si>
-  <si>
-    <t>[1,2,0] | [1,1,1] | [1,0,2] | [1,1,2]</t>
-  </si>
-  <si>
-    <t>[1,1,2] | [1,2,0] | [1,1,1] | [1,0,2]</t>
-  </si>
-  <si>
-    <t>[1,2,0]</t>
+    <t>[2,2,2]</t>
   </si>
   <si>
     <t>[2,1,0]</t>
-  </si>
-  <si>
-    <t>[2,2,2]</t>
   </si>
   <si>
     <t>[0,0,0]</t>
@@ -145,22 +157,25 @@
     <t>[2,1,0] | [0,0,0] | [1,2,0]</t>
   </si>
   <si>
-    <t>[2,1,0] | [1,2,0] | [0,0,0]</t>
+    <t>[0,0,0] | [2,1,0] | [1,2,0]</t>
+  </si>
+  <si>
+    <t>[0,0,0] | [1,2,0] | [2,1,0]</t>
   </si>
   <si>
     <t>[1,2,0] | [2,1,0] | [0,0,0]</t>
   </si>
   <si>
-    <t>[1,1,1]</t>
+    <t>[2,1,0] | [2,0,1] | [2,2,2]</t>
+  </si>
+  <si>
+    <t>[2,2,2] | [2,1,0] | [2,0,1]</t>
   </si>
   <si>
     <t>[2,0,1] | [2,1,0] | [2,2,2]</t>
   </si>
   <si>
     <t>[2,2,2] | [2,0,1] | [2,1,0]</t>
-  </si>
-  <si>
-    <t>[2,1,0] | [2,2,2] | [2,0,1]</t>
   </si>
   <si>
     <t>candidate</t>
@@ -252,8 +267,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N154" totalsRowShown="0">
-  <autoFilter ref="A1:N154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N151" totalsRowShown="0">
+  <autoFilter ref="A1:N151"/>
   <tableColumns count="14">
     <tableColumn id="1" name="domain"/>
     <tableColumn id="2" name="seed"/>
@@ -644,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.90547370910645</v>
+        <v>20.30563354492188</v>
       </c>
       <c r="N2">
-        <v>17.90547370910645</v>
+        <v>20.30563354492188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -685,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>12.00199127197266</v>
+        <v>12.2075080871582</v>
       </c>
       <c r="M3">
-        <v>8.390188217163086</v>
+        <v>11.66248321533203</v>
       </c>
       <c r="N3">
-        <v>20.39217948913574</v>
+        <v>23.86999130249023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -729,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.99702644348145</v>
+        <v>13.5962963104248</v>
       </c>
       <c r="N4">
-        <v>17.99702644348145</v>
+        <v>13.5962963104248</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -770,13 +785,13 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>11.99817657470703</v>
+        <v>12.5737190246582</v>
       </c>
       <c r="M5">
-        <v>7.000923156738281</v>
+        <v>13.0012035369873</v>
       </c>
       <c r="N5">
-        <v>18.99909973144531</v>
+        <v>25.57492256164551</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -814,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.18213272094727</v>
+        <v>19.61803436279297</v>
       </c>
       <c r="N6">
-        <v>20.18213272094727</v>
+        <v>19.61803436279297</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -843,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -855,13 +870,13 @@
         <v>4</v>
       </c>
       <c r="L7">
-        <v>18.59927177429199</v>
+        <v>18.00394058227539</v>
       </c>
       <c r="M7">
-        <v>22.00579643249512</v>
+        <v>18.00084114074707</v>
       </c>
       <c r="N7">
-        <v>40.60506820678711</v>
+        <v>36.00478172302246</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -899,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.10458374023438</v>
+        <v>20.98941802978516</v>
       </c>
       <c r="N8">
-        <v>11.10458374023438</v>
+        <v>20.98941802978516</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -928,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -940,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>13.10372352600098</v>
+        <v>14.01138305664062</v>
       </c>
       <c r="M9">
-        <v>23.55408668518066</v>
+        <v>23.99420738220215</v>
       </c>
       <c r="N9">
-        <v>36.65781021118164</v>
+        <v>38.00559043884277</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -984,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.07680320739746</v>
+        <v>16.04175567626953</v>
       </c>
       <c r="N10">
-        <v>16.07680320739746</v>
+        <v>16.04175567626953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1013,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -1025,13 +1040,13 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>14.98031616210938</v>
+        <v>18.54777336120605</v>
       </c>
       <c r="M11">
-        <v>36.01288795471191</v>
+        <v>32.99856185913086</v>
       </c>
       <c r="N11">
-        <v>50.99320411682129</v>
+        <v>51.54633522033691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1054,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1069,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>37.0020866394043</v>
+        <v>33.00333023071289</v>
       </c>
       <c r="N12">
-        <v>37.0020866394043</v>
+        <v>33.00333023071289</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1095,10 +1110,10 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1110,13 +1125,13 @@
         <v>4</v>
       </c>
       <c r="L13">
-        <v>13.08846473693848</v>
+        <v>17.99798011779785</v>
       </c>
       <c r="M13">
-        <v>8.00013542175293</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N13">
-        <v>21.08860015869141</v>
+        <v>22.99785614013672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1139,16 +1154,13 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>10</v>
@@ -1157,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>48.09713363647461</v>
+        <v>23.98777008056641</v>
       </c>
       <c r="N14">
-        <v>48.09713363647461</v>
+        <v>23.98777008056641</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1183,10 +1195,10 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1198,13 +1210,13 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>13.43035697937012</v>
+        <v>13.57436180114746</v>
       </c>
       <c r="M15">
-        <v>14.52136039733887</v>
+        <v>7.999420166015625</v>
       </c>
       <c r="N15">
-        <v>27.95171737670898</v>
+        <v>21.57378196716309</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1227,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1242,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.21103477478027</v>
+        <v>29.5255184173584</v>
       </c>
       <c r="N16">
-        <v>39.21103477478027</v>
+        <v>29.5255184173584</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1268,10 +1280,10 @@
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1283,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>16.00432395935059</v>
+        <v>18.00036430358887</v>
       </c>
       <c r="M17">
-        <v>20.61820030212402</v>
+        <v>19.99759674072266</v>
       </c>
       <c r="N17">
-        <v>36.62252426147461</v>
+        <v>37.99796104431152</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1312,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1327,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.20018005371094</v>
+        <v>27.65536308288574</v>
       </c>
       <c r="N18">
-        <v>21.20018005371094</v>
+        <v>27.65536308288574</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1353,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>26</v>
@@ -1368,13 +1380,13 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>12.41970062255859</v>
+        <v>15.06233215332031</v>
       </c>
       <c r="M19">
-        <v>21.99339866638184</v>
+        <v>27.82320976257324</v>
       </c>
       <c r="N19">
-        <v>34.41309928894043</v>
+        <v>42.88554191589355</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1397,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1412,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>26.98874473571777</v>
+        <v>27.68874168395996</v>
       </c>
       <c r="N20">
-        <v>26.98874473571777</v>
+        <v>27.68874168395996</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1438,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
         <v>27</v>
@@ -1453,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="L21">
-        <v>15.98620414733887</v>
+        <v>16.1130428314209</v>
       </c>
       <c r="M21">
-        <v>33.0204963684082</v>
+        <v>30.39813041687012</v>
       </c>
       <c r="N21">
-        <v>49.00670051574707</v>
+        <v>46.51117324829102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1484,11 +1496,14 @@
       <c r="G22" t="s">
         <v>28</v>
       </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -1497,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>35.91322898864746</v>
+        <v>63.05861473083496</v>
       </c>
       <c r="N22">
-        <v>35.91322898864746</v>
+        <v>63.05861473083496</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1526,25 +1541,25 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>12.76397705078125</v>
+        <v>12.99262046813965</v>
       </c>
       <c r="M23">
-        <v>1.863956451416016</v>
+        <v>11.07525825500488</v>
       </c>
       <c r="N23">
-        <v>14.62793350219727</v>
+        <v>24.06787872314453</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1582,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41.28003120422363</v>
+        <v>37.66512870788574</v>
       </c>
       <c r="N24">
-        <v>41.28003120422363</v>
+        <v>37.66512870788574</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1611,7 +1626,7 @@
         <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1623,13 +1638,13 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <v>14.40668106079102</v>
+        <v>13.09823989868164</v>
       </c>
       <c r="M25">
-        <v>10.88833808898926</v>
+        <v>12.99595832824707</v>
       </c>
       <c r="N25">
-        <v>25.29501914978027</v>
+        <v>26.09419822692871</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1667,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>25.27451515197754</v>
+        <v>30.00545501708984</v>
       </c>
       <c r="N26">
-        <v>25.27451515197754</v>
+        <v>30.00545501708984</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1696,7 +1711,7 @@
         <v>28</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1708,13 +1723,13 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <v>14.15872573852539</v>
+        <v>18.56541633605957</v>
       </c>
       <c r="M27">
-        <v>23.58293533325195</v>
+        <v>20.52021026611328</v>
       </c>
       <c r="N27">
-        <v>37.74166107177734</v>
+        <v>39.08562660217285</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1752,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>22.90582656860352</v>
+        <v>23.51856231689453</v>
       </c>
       <c r="N28">
-        <v>22.90582656860352</v>
+        <v>23.51856231689453</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1781,7 +1796,7 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1793,13 +1808,13 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>13.0918025970459</v>
+        <v>12.98403739929199</v>
       </c>
       <c r="M29">
-        <v>24.98435974121094</v>
+        <v>25.81000328063965</v>
       </c>
       <c r="N29">
-        <v>38.07616233825684</v>
+        <v>38.79404067993164</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1837,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>26.99995040893555</v>
+        <v>32.03678131103516</v>
       </c>
       <c r="N30">
-        <v>26.99995040893555</v>
+        <v>32.03678131103516</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1866,7 +1881,7 @@
         <v>28</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1878,13 +1893,13 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <v>16.0067081451416</v>
+        <v>15.01846313476562</v>
       </c>
       <c r="M31">
-        <v>30.11155128479004</v>
+        <v>29.64186668395996</v>
       </c>
       <c r="N31">
-        <v>46.11825942993164</v>
+        <v>44.66032981872559</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1907,13 +1922,16 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>10</v>
@@ -1922,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>18.99313926696777</v>
+        <v>15.51485061645508</v>
       </c>
       <c r="N32">
-        <v>18.99313926696777</v>
+        <v>15.51485061645508</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1948,10 +1966,10 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1963,13 +1981,13 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>12.01701164245605</v>
+        <v>16.00122451782227</v>
       </c>
       <c r="M33">
-        <v>5.703926086425781</v>
+        <v>9.01484489440918</v>
       </c>
       <c r="N33">
-        <v>17.72093772888184</v>
+        <v>25.01606941223145</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1992,7 +2010,7 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2007,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>20.0040340423584</v>
+        <v>22.003173828125</v>
       </c>
       <c r="N34">
-        <v>20.0040340423584</v>
+        <v>22.003173828125</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2033,10 +2051,10 @@
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -2048,13 +2066,13 @@
         <v>4</v>
       </c>
       <c r="L35">
-        <v>14.75739479064941</v>
+        <v>12.12334632873535</v>
       </c>
       <c r="M35">
-        <v>13.99803161621094</v>
+        <v>9.977102279663086</v>
       </c>
       <c r="N35">
-        <v>28.75542640686035</v>
+        <v>22.10044860839844</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2077,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2092,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>28.52129936218262</v>
+        <v>21.97837829589844</v>
       </c>
       <c r="N36">
-        <v>28.52129936218262</v>
+        <v>21.97837829589844</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2118,10 +2136,10 @@
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2133,13 +2151,13 @@
         <v>4</v>
       </c>
       <c r="L37">
-        <v>13.98468017578125</v>
+        <v>20.00594139099121</v>
       </c>
       <c r="M37">
-        <v>18.69368553161621</v>
+        <v>24.7495174407959</v>
       </c>
       <c r="N37">
-        <v>32.67836570739746</v>
+        <v>44.75545883178711</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2162,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2177,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>15.97070693969727</v>
+        <v>12.12191581726074</v>
       </c>
       <c r="N38">
-        <v>15.97070693969727</v>
+        <v>12.12191581726074</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2203,10 +2221,10 @@
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -2218,13 +2236,13 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <v>12.98618316650391</v>
+        <v>13.10539245605469</v>
       </c>
       <c r="M39">
-        <v>22.63927459716797</v>
+        <v>21.89469337463379</v>
       </c>
       <c r="N39">
-        <v>35.62545776367188</v>
+        <v>35.00008583068848</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2247,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2262,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>11.93785667419434</v>
+        <v>16.0212516784668</v>
       </c>
       <c r="N40">
-        <v>11.93785667419434</v>
+        <v>16.0212516784668</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2288,10 +2306,10 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -2303,13 +2321,13 @@
         <v>4</v>
       </c>
       <c r="L41">
-        <v>14.19162750244141</v>
+        <v>18.01419258117676</v>
       </c>
       <c r="M41">
-        <v>30.89165687561035</v>
+        <v>35.02559661865234</v>
       </c>
       <c r="N41">
-        <v>45.08328437805176</v>
+        <v>53.0397891998291</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2332,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2347,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>24.32537078857422</v>
+        <v>18.96047592163086</v>
       </c>
       <c r="N42">
-        <v>24.32537078857422</v>
+        <v>18.96047592163086</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2373,10 +2391,10 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I43" t="b">
         <v>1</v>
@@ -2388,13 +2406,13 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>14.41073417663574</v>
+        <v>12.56060600280762</v>
       </c>
       <c r="M43">
-        <v>2.003908157348633</v>
+        <v>2.001047134399414</v>
       </c>
       <c r="N43">
-        <v>16.41464233398438</v>
+        <v>14.56165313720703</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2417,10 +2435,10 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I44" t="b">
         <v>1</v>
@@ -2435,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>11.00754737854004</v>
+        <v>15.1817798614502</v>
       </c>
       <c r="N44">
-        <v>11.00754737854004</v>
+        <v>15.1817798614502</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2461,10 +2479,10 @@
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -2476,13 +2494,13 @@
         <v>2</v>
       </c>
       <c r="L45">
-        <v>14.01686668395996</v>
+        <v>18.97835731506348</v>
       </c>
       <c r="M45">
-        <v>2.100706100463867</v>
+        <v>5.368947982788086</v>
       </c>
       <c r="N45">
-        <v>16.11757278442383</v>
+        <v>24.34730529785156</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2505,13 +2523,16 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>10</v>
@@ -2520,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>8.895635604858398</v>
+        <v>8.743047714233398</v>
       </c>
       <c r="N46">
-        <v>8.895635604858398</v>
+        <v>8.743047714233398</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2546,10 +2567,10 @@
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2561,13 +2582,13 @@
         <v>2</v>
       </c>
       <c r="L47">
-        <v>15.10787010192871</v>
+        <v>13.11492919921875</v>
       </c>
       <c r="M47">
-        <v>3.995895385742188</v>
+        <v>2.986669540405273</v>
       </c>
       <c r="N47">
-        <v>19.1037654876709</v>
+        <v>16.10159873962402</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2590,10 +2611,10 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I48" t="b">
         <v>1</v>
@@ -2608,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>8.998394012451172</v>
+        <v>12.26997375488281</v>
       </c>
       <c r="N48">
-        <v>8.998394012451172</v>
+        <v>12.26997375488281</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2634,10 +2655,10 @@
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I49" t="b">
         <v>1</v>
@@ -2649,13 +2670,13 @@
         <v>2</v>
       </c>
       <c r="L49">
-        <v>13.93413543701172</v>
+        <v>19.08469200134277</v>
       </c>
       <c r="M49">
-        <v>2.995967864990234</v>
+        <v>5.514383316040039</v>
       </c>
       <c r="N49">
-        <v>16.93010330200195</v>
+        <v>24.59907531738281</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2678,10 +2699,10 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" t="b">
         <v>1</v>
@@ -2696,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>8.402585983276367</v>
+        <v>7.041692733764648</v>
       </c>
       <c r="N50">
-        <v>8.402585983276367</v>
+        <v>7.041692733764648</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2722,10 +2743,10 @@
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2737,13 +2758,13 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>20.00045776367188</v>
+        <v>12.92037963867188</v>
       </c>
       <c r="M51">
-        <v>8.996725082397461</v>
+        <v>5.034208297729492</v>
       </c>
       <c r="N51">
-        <v>28.99718284606934</v>
+        <v>17.95458793640137</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2766,10 +2787,10 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2784,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>15.99836349487305</v>
+        <v>25.48575401306152</v>
       </c>
       <c r="N52">
-        <v>15.99836349487305</v>
+        <v>25.48575401306152</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2810,10 +2831,10 @@
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2825,13 +2846,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>13.50545883178711</v>
+        <v>17.30036735534668</v>
       </c>
       <c r="M53">
-        <v>3.01361083984375</v>
+        <v>4.027128219604492</v>
       </c>
       <c r="N53">
-        <v>16.51906967163086</v>
+        <v>21.32749557495117</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2854,10 +2875,10 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I54" t="b">
         <v>1</v>
@@ -2872,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>8.414030075073242</v>
+        <v>16.95609092712402</v>
       </c>
       <c r="N54">
-        <v>8.414030075073242</v>
+        <v>16.95609092712402</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2898,10 +2919,10 @@
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2913,13 +2934,13 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>15.63096046447754</v>
+        <v>13.02313804626465</v>
       </c>
       <c r="M55">
-        <v>3.015756607055664</v>
+        <v>2.111911773681641</v>
       </c>
       <c r="N55">
-        <v>18.6467170715332</v>
+        <v>15.13504981994629</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2942,10 +2963,10 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I56" t="b">
         <v>1</v>
@@ -2960,10 +2981,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>17.04287528991699</v>
+        <v>9.002447128295898</v>
       </c>
       <c r="N56">
-        <v>17.04287528991699</v>
+        <v>9.002447128295898</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2986,10 +3007,10 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -3001,13 +3022,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>13.01312446594238</v>
+        <v>20.01476287841797</v>
       </c>
       <c r="M57">
-        <v>2.093076705932617</v>
+        <v>2.992391586303711</v>
       </c>
       <c r="N57">
-        <v>15.106201171875</v>
+        <v>23.00715446472168</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3030,10 +3051,10 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
@@ -3048,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>7.133007049560547</v>
+        <v>5.994319915771484</v>
       </c>
       <c r="N58">
-        <v>7.133007049560547</v>
+        <v>5.994319915771484</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3074,10 +3095,10 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I59" t="b">
         <v>1</v>
@@ -3089,13 +3110,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>17.50707626342773</v>
+        <v>13.68594169616699</v>
       </c>
       <c r="M59">
-        <v>3.107070922851562</v>
+        <v>1.006364822387695</v>
       </c>
       <c r="N59">
-        <v>20.6141471862793</v>
+        <v>14.69230651855469</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3118,10 +3139,10 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I60" t="b">
         <v>1</v>
@@ -3136,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>5.544900894165039</v>
+        <v>5.972862243652344</v>
       </c>
       <c r="N60">
-        <v>5.544900894165039</v>
+        <v>5.972862243652344</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3162,10 +3183,10 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3177,13 +3198,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>14.09196853637695</v>
+        <v>17.52281188964844</v>
       </c>
       <c r="M61">
-        <v>2.000331878662109</v>
+        <v>1.982212066650391</v>
       </c>
       <c r="N61">
-        <v>16.09230041503906</v>
+        <v>19.50502395629883</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3206,16 +3227,13 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <v>10</v>
@@ -3224,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>23.11301231384277</v>
+        <v>45.74823379516602</v>
       </c>
       <c r="N62">
-        <v>23.11301231384277</v>
+        <v>45.74823379516602</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3250,10 +3268,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I63" t="b">
         <v>1</v>
@@ -3265,13 +3283,13 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>14.90640640258789</v>
+        <v>12.07304000854492</v>
       </c>
       <c r="M63">
-        <v>2.098798751831055</v>
+        <v>3.003597259521484</v>
       </c>
       <c r="N63">
-        <v>17.00520515441895</v>
+        <v>15.07663726806641</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3294,16 +3312,13 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
-      </c>
-      <c r="H64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -3312,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>7.073402404785156</v>
+        <v>20.04241943359375</v>
       </c>
       <c r="N64">
-        <v>7.073402404785156</v>
+        <v>20.04241943359375</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3338,10 +3353,10 @@
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -3353,13 +3368,13 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>12.99238204956055</v>
+        <v>15.98620414733887</v>
       </c>
       <c r="M65">
-        <v>2.001523971557617</v>
+        <v>4.007577896118164</v>
       </c>
       <c r="N65">
-        <v>14.99390602111816</v>
+        <v>19.99378204345703</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3382,13 +3397,16 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <v>10</v>
@@ -3397,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>10.00237464904785</v>
+        <v>8.999109268188477</v>
       </c>
       <c r="N66">
-        <v>10.00237464904785</v>
+        <v>8.999109268188477</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3423,10 +3441,10 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H67" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I67" t="b">
         <v>1</v>
@@ -3438,13 +3456,13 @@
         <v>2</v>
       </c>
       <c r="L67">
-        <v>14.9993896484375</v>
+        <v>12.9997730255127</v>
       </c>
       <c r="M67">
-        <v>3.002643585205078</v>
+        <v>2.00200080871582</v>
       </c>
       <c r="N67">
-        <v>18.00203323364258</v>
+        <v>15.00177383422852</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3467,10 +3485,10 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I68" t="b">
         <v>1</v>
@@ -3485,10 +3503,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>5.910158157348633</v>
+        <v>7.030487060546875</v>
       </c>
       <c r="N68">
-        <v>5.910158157348633</v>
+        <v>7.030487060546875</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3511,10 +3529,10 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I69" t="b">
         <v>1</v>
@@ -3526,13 +3544,13 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>13.08107376098633</v>
+        <v>15.05255699157715</v>
       </c>
       <c r="M69">
-        <v>2.009391784667969</v>
+        <v>0.9932518005371094</v>
       </c>
       <c r="N69">
-        <v>15.0904655456543</v>
+        <v>16.04580879211426</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3555,10 +3573,10 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -3573,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>4.98509407043457</v>
+        <v>6.006717681884766</v>
       </c>
       <c r="N70">
-        <v>4.98509407043457</v>
+        <v>6.006717681884766</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3599,10 +3617,10 @@
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I71" t="b">
         <v>1</v>
@@ -3614,13 +3632,13 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>17.01521873474121</v>
+        <v>13.00382614135742</v>
       </c>
       <c r="M71">
-        <v>1.988887786865234</v>
+        <v>2.108097076416016</v>
       </c>
       <c r="N71">
-        <v>19.00410652160645</v>
+        <v>15.11192321777344</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3643,7 +3661,7 @@
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
@@ -3658,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>35.57324409484863</v>
+        <v>117.2389984130859</v>
       </c>
       <c r="N72">
-        <v>35.57324409484863</v>
+        <v>117.2389984130859</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3684,10 +3702,10 @@
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H73" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3699,13 +3717,13 @@
         <v>3</v>
       </c>
       <c r="L73">
-        <v>13.06819915771484</v>
+        <v>17.56930351257324</v>
       </c>
       <c r="M73">
-        <v>7.086515426635742</v>
+        <v>5.379199981689453</v>
       </c>
       <c r="N73">
-        <v>20.15471458435059</v>
+        <v>22.9485034942627</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3728,16 +3746,13 @@
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -3746,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>24.90830421447754</v>
+        <v>45.08566856384277</v>
       </c>
       <c r="N74">
-        <v>24.90830421447754</v>
+        <v>45.08566856384277</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3772,28 +3787,28 @@
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H75" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>14.93525505065918</v>
+        <v>12.09926605224609</v>
       </c>
       <c r="M75">
-        <v>20.62320709228516</v>
+        <v>4.991531372070312</v>
       </c>
       <c r="N75">
-        <v>35.55846214294434</v>
+        <v>17.09079742431641</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3816,10 +3831,10 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I76" t="b">
         <v>1</v>
@@ -3834,10 +3849,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>23.70715141296387</v>
+        <v>30.26986122131348</v>
       </c>
       <c r="N76">
-        <v>23.70715141296387</v>
+        <v>30.26986122131348</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3860,10 +3875,10 @@
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3875,13 +3890,13 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>12.99667358398438</v>
+        <v>17.50397682189941</v>
       </c>
       <c r="M77">
-        <v>17.02070236206055</v>
+        <v>18.02682876586914</v>
       </c>
       <c r="N77">
-        <v>30.01737594604492</v>
+        <v>35.53080558776855</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3904,10 +3919,10 @@
         <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3922,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>24.98412132263184</v>
+        <v>20.81561088562012</v>
       </c>
       <c r="N78">
-        <v>24.98412132263184</v>
+        <v>20.81561088562012</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3948,10 +3963,10 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H79" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -3963,13 +3978,13 @@
         <v>3</v>
       </c>
       <c r="L79">
-        <v>15.00296592712402</v>
+        <v>13.59224319458008</v>
       </c>
       <c r="M79">
-        <v>20.10512351989746</v>
+        <v>22.4311351776123</v>
       </c>
       <c r="N79">
-        <v>35.10808944702148</v>
+        <v>36.02337837219238</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3992,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H80" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I80" t="b">
         <v>1</v>
@@ -4010,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>24.00541305541992</v>
+        <v>29.1144847869873</v>
       </c>
       <c r="N80">
-        <v>24.00541305541992</v>
+        <v>29.1144847869873</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4036,10 +4051,10 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H81" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -4051,13 +4066,13 @@
         <v>3</v>
       </c>
       <c r="L81">
-        <v>14.1899585723877</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M81">
-        <v>24.71303939819336</v>
+        <v>24.58882331848145</v>
       </c>
       <c r="N81">
-        <v>38.90299797058105</v>
+        <v>40.5881404876709</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4080,16 +4095,13 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -4098,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>13.70978355407715</v>
+        <v>27.52327919006348</v>
       </c>
       <c r="N82">
-        <v>13.70978355407715</v>
+        <v>27.52327919006348</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4124,10 +4136,10 @@
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H83" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -4139,13 +4151,13 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>13.96679878234863</v>
+        <v>11.99913024902344</v>
       </c>
       <c r="M83">
-        <v>3.003120422363281</v>
+        <v>2.991914749145508</v>
       </c>
       <c r="N83">
-        <v>16.96991920471191</v>
+        <v>14.99104499816895</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4168,16 +4180,13 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4186,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>9.130239486694336</v>
+        <v>12.00413703918457</v>
       </c>
       <c r="N84">
-        <v>9.130239486694336</v>
+        <v>12.00413703918457</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4212,10 +4221,10 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H85" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
@@ -4227,13 +4236,13 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>11.98434829711914</v>
+        <v>15.20943641662598</v>
       </c>
       <c r="M85">
-        <v>1.9989013671875</v>
+        <v>3.998517990112305</v>
       </c>
       <c r="N85">
-        <v>13.98324966430664</v>
+        <v>19.20795440673828</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4256,10 +4265,10 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I86" t="b">
         <v>1</v>
@@ -4274,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>6.888151168823242</v>
+        <v>12.9997730255127</v>
       </c>
       <c r="N86">
-        <v>6.888151168823242</v>
+        <v>12.9997730255127</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4300,10 +4309,10 @@
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4315,13 +4324,13 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>16.08753204345703</v>
+        <v>14.09173011779785</v>
       </c>
       <c r="M87">
-        <v>4.900932312011719</v>
+        <v>2.006053924560547</v>
       </c>
       <c r="N87">
-        <v>20.98846435546875</v>
+        <v>16.0977840423584</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4344,10 +4353,10 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I88" t="b">
         <v>1</v>
@@ -4362,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>11.10935211181641</v>
+        <v>11.40809059143066</v>
       </c>
       <c r="N88">
-        <v>11.10935211181641</v>
+        <v>11.40809059143066</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4388,10 +4397,10 @@
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H89" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4403,13 +4412,13 @@
         <v>2</v>
       </c>
       <c r="L89">
-        <v>13.98658752441406</v>
+        <v>18.02682876586914</v>
       </c>
       <c r="M89">
-        <v>5.000114440917969</v>
+        <v>4.014253616333008</v>
       </c>
       <c r="N89">
-        <v>18.98670196533203</v>
+        <v>22.04108238220215</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4432,10 +4441,10 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I90" t="b">
         <v>1</v>
@@ -4450,10 +4459,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>8.221626281738281</v>
+        <v>8.006572723388672</v>
       </c>
       <c r="N90">
-        <v>8.221626281738281</v>
+        <v>8.006572723388672</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4476,10 +4485,10 @@
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4491,13 +4500,13 @@
         <v>2</v>
       </c>
       <c r="L91">
-        <v>15.99955558776855</v>
+        <v>14.13297653198242</v>
       </c>
       <c r="M91">
-        <v>5.000114440917969</v>
+        <v>3.001928329467773</v>
       </c>
       <c r="N91">
-        <v>20.99967002868652</v>
+        <v>17.1349048614502</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4520,16 +4529,13 @@
         <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
-      </c>
-      <c r="H92" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>10</v>
@@ -4538,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>20.01309394836426</v>
+        <v>75.60324668884277</v>
       </c>
       <c r="N92">
-        <v>20.01309394836426</v>
+        <v>75.60324668884277</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4564,10 +4570,10 @@
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I93" t="b">
         <v>1</v>
@@ -4579,13 +4585,13 @@
         <v>3</v>
       </c>
       <c r="L93">
-        <v>12.9702091217041</v>
+        <v>16.39366149902344</v>
       </c>
       <c r="M93">
-        <v>6.012201309204102</v>
+        <v>8.00633430480957</v>
       </c>
       <c r="N93">
-        <v>18.9824104309082</v>
+        <v>24.39999580383301</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4608,16 +4614,13 @@
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
-      </c>
-      <c r="H94" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -4626,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>23.91242980957031</v>
+        <v>47.4095344543457</v>
       </c>
       <c r="N94">
-        <v>23.91242980957031</v>
+        <v>47.4095344543457</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4652,10 +4655,10 @@
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -4667,13 +4670,13 @@
         <v>3</v>
       </c>
       <c r="L95">
-        <v>15.96641540527344</v>
+        <v>14.43576812744141</v>
       </c>
       <c r="M95">
-        <v>11.00659370422363</v>
+        <v>7.00068473815918</v>
       </c>
       <c r="N95">
-        <v>26.97300910949707</v>
+        <v>21.43645286560059</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4696,16 +4699,13 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
-      </c>
-      <c r="H96" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>11.05165481567383</v>
+        <v>21.50869369506836</v>
       </c>
       <c r="N96">
-        <v>11.05165481567383</v>
+        <v>21.50869369506836</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4740,10 +4740,10 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I97" t="b">
         <v>1</v>
@@ -4755,13 +4755,13 @@
         <v>3</v>
       </c>
       <c r="L97">
-        <v>13.15879821777344</v>
+        <v>16.88861846923828</v>
       </c>
       <c r="M97">
-        <v>19.74844932556152</v>
+        <v>19.10996437072754</v>
       </c>
       <c r="N97">
-        <v>32.90724754333496</v>
+        <v>35.99858283996582</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4784,13 +4784,16 @@
         <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H98" t="s">
+        <v>42</v>
       </c>
       <c r="I98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>10</v>
@@ -4799,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>27.78410911560059</v>
+        <v>10.80107688903809</v>
       </c>
       <c r="N98">
-        <v>27.78410911560059</v>
+        <v>10.80107688903809</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4825,10 +4828,10 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I99" t="b">
         <v>1</v>
@@ -4840,13 +4843,13 @@
         <v>3</v>
       </c>
       <c r="L99">
-        <v>15.42401313781738</v>
+        <v>14.1143798828125</v>
       </c>
       <c r="M99">
-        <v>22.00007438659668</v>
+        <v>21.35682106018066</v>
       </c>
       <c r="N99">
-        <v>37.42408752441406</v>
+        <v>35.47120094299316</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4869,10 +4872,10 @@
         <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -4887,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>12.00079917907715</v>
+        <v>15.08092880249023</v>
       </c>
       <c r="N100">
-        <v>12.00079917907715</v>
+        <v>15.08092880249023</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4913,10 +4916,10 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -4928,13 +4931,13 @@
         <v>3</v>
       </c>
       <c r="L101">
-        <v>13.98491859436035</v>
+        <v>20.00999450683594</v>
       </c>
       <c r="M101">
-        <v>27.04238891601562</v>
+        <v>32.39703178405762</v>
       </c>
       <c r="N101">
-        <v>41.02730751037598</v>
+        <v>52.40702629089355</v>
       </c>
     </row>
   </sheetData>
@@ -4947,7 +4950,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4967,13 +4970,13 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -5011,13 +5014,13 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -5032,13 +5035,13 @@
         <v>4</v>
       </c>
       <c r="L2">
-        <v>12.00199127197266</v>
+        <v>12.2075080871582</v>
       </c>
       <c r="M2">
-        <v>8.390188217163086</v>
+        <v>11.66248321533203</v>
       </c>
       <c r="N2">
-        <v>20.39217948913574</v>
+        <v>23.86999130249023</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5055,7 +5058,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -5076,13 +5079,13 @@
         <v>4</v>
       </c>
       <c r="L3">
-        <v>12.00199127197266</v>
+        <v>12.2075080871582</v>
       </c>
       <c r="M3">
-        <v>8.390188217163086</v>
+        <v>11.66248321533203</v>
       </c>
       <c r="N3">
-        <v>20.39217948913574</v>
+        <v>23.86999130249023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5099,7 +5102,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -5120,13 +5123,13 @@
         <v>4</v>
       </c>
       <c r="L4">
-        <v>12.00199127197266</v>
+        <v>12.2075080871582</v>
       </c>
       <c r="M4">
-        <v>8.390188217163086</v>
+        <v>11.66248321533203</v>
       </c>
       <c r="N4">
-        <v>20.39217948913574</v>
+        <v>23.86999130249023</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5143,13 +5146,13 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0.2</v>
@@ -5164,13 +5167,13 @@
         <v>4</v>
       </c>
       <c r="L5">
-        <v>12.00199127197266</v>
+        <v>12.2075080871582</v>
       </c>
       <c r="M5">
-        <v>8.390188217163086</v>
+        <v>11.66248321533203</v>
       </c>
       <c r="N5">
-        <v>20.39217948913574</v>
+        <v>23.86999130249023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5187,7 +5190,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5208,13 +5211,13 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>11.99817657470703</v>
+        <v>12.5737190246582</v>
       </c>
       <c r="M6">
-        <v>7.000923156738281</v>
+        <v>13.0012035369873</v>
       </c>
       <c r="N6">
-        <v>18.99909973144531</v>
+        <v>25.57492256164551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5231,13 +5234,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0.4</v>
@@ -5252,13 +5255,13 @@
         <v>4</v>
       </c>
       <c r="L7">
-        <v>11.99817657470703</v>
+        <v>12.5737190246582</v>
       </c>
       <c r="M7">
-        <v>7.000923156738281</v>
+        <v>13.0012035369873</v>
       </c>
       <c r="N7">
-        <v>18.99909973144531</v>
+        <v>25.57492256164551</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5275,7 +5278,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -5296,13 +5299,13 @@
         <v>4</v>
       </c>
       <c r="L8">
-        <v>11.99817657470703</v>
+        <v>12.5737190246582</v>
       </c>
       <c r="M8">
-        <v>7.000923156738281</v>
+        <v>13.0012035369873</v>
       </c>
       <c r="N8">
-        <v>18.99909973144531</v>
+        <v>25.57492256164551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5319,13 +5322,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0.4</v>
@@ -5340,13 +5343,13 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>11.99817657470703</v>
+        <v>12.5737190246582</v>
       </c>
       <c r="M9">
-        <v>7.000923156738281</v>
+        <v>13.0012035369873</v>
       </c>
       <c r="N9">
-        <v>18.99909973144531</v>
+        <v>25.57492256164551</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5363,13 +5366,13 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0.6</v>
@@ -5384,13 +5387,13 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>18.59927177429199</v>
+        <v>18.00394058227539</v>
       </c>
       <c r="M10">
-        <v>22.00579643249512</v>
+        <v>18.00084114074707</v>
       </c>
       <c r="N10">
-        <v>40.60506820678711</v>
+        <v>36.00478172302246</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5407,13 +5410,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0.6</v>
@@ -5428,13 +5431,13 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>18.59927177429199</v>
+        <v>18.00394058227539</v>
       </c>
       <c r="M11">
-        <v>22.00579643249512</v>
+        <v>18.00084114074707</v>
       </c>
       <c r="N11">
-        <v>40.60506820678711</v>
+        <v>36.00478172302246</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5451,7 +5454,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -5472,13 +5475,13 @@
         <v>4</v>
       </c>
       <c r="L12">
-        <v>18.59927177429199</v>
+        <v>18.00394058227539</v>
       </c>
       <c r="M12">
-        <v>22.00579643249512</v>
+        <v>18.00084114074707</v>
       </c>
       <c r="N12">
-        <v>40.60506820678711</v>
+        <v>36.00478172302246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5495,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -5516,13 +5519,13 @@
         <v>4</v>
       </c>
       <c r="L13">
-        <v>18.59927177429199</v>
+        <v>18.00394058227539</v>
       </c>
       <c r="M13">
-        <v>22.00579643249512</v>
+        <v>18.00084114074707</v>
       </c>
       <c r="N13">
-        <v>40.60506820678711</v>
+        <v>36.00478172302246</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5539,7 +5542,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5560,13 +5563,13 @@
         <v>4</v>
       </c>
       <c r="L14">
-        <v>13.10372352600098</v>
+        <v>14.01138305664062</v>
       </c>
       <c r="M14">
-        <v>23.55408668518066</v>
+        <v>23.99420738220215</v>
       </c>
       <c r="N14">
-        <v>36.65781021118164</v>
+        <v>38.00559043884277</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5583,7 +5586,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -5604,13 +5607,13 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>13.10372352600098</v>
+        <v>14.01138305664062</v>
       </c>
       <c r="M15">
-        <v>23.55408668518066</v>
+        <v>23.99420738220215</v>
       </c>
       <c r="N15">
-        <v>36.65781021118164</v>
+        <v>38.00559043884277</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5627,13 +5630,13 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0.8</v>
@@ -5648,13 +5651,13 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>13.10372352600098</v>
+        <v>14.01138305664062</v>
       </c>
       <c r="M16">
-        <v>23.55408668518066</v>
+        <v>23.99420738220215</v>
       </c>
       <c r="N16">
-        <v>36.65781021118164</v>
+        <v>38.00559043884277</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5671,13 +5674,13 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0.8</v>
@@ -5692,13 +5695,13 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>13.10372352600098</v>
+        <v>14.01138305664062</v>
       </c>
       <c r="M17">
-        <v>23.55408668518066</v>
+        <v>23.99420738220215</v>
       </c>
       <c r="N17">
-        <v>36.65781021118164</v>
+        <v>38.00559043884277</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5715,13 +5718,13 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5736,13 +5739,13 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <v>14.98031616210938</v>
+        <v>18.54777336120605</v>
       </c>
       <c r="M18">
-        <v>36.01288795471191</v>
+        <v>32.99856185913086</v>
       </c>
       <c r="N18">
-        <v>50.99320411682129</v>
+        <v>51.54633522033691</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5759,13 +5762,13 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5780,13 +5783,13 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>14.98031616210938</v>
+        <v>18.54777336120605</v>
       </c>
       <c r="M19">
-        <v>36.01288795471191</v>
+        <v>32.99856185913086</v>
       </c>
       <c r="N19">
-        <v>50.99320411682129</v>
+        <v>51.54633522033691</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5803,7 +5806,7 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -5824,13 +5827,13 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>14.98031616210938</v>
+        <v>18.54777336120605</v>
       </c>
       <c r="M20">
-        <v>36.01288795471191</v>
+        <v>32.99856185913086</v>
       </c>
       <c r="N20">
-        <v>50.99320411682129</v>
+        <v>51.54633522033691</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5847,7 +5850,7 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -5868,13 +5871,13 @@
         <v>4</v>
       </c>
       <c r="L21">
-        <v>14.98031616210938</v>
+        <v>18.54777336120605</v>
       </c>
       <c r="M21">
-        <v>36.01288795471191</v>
+        <v>32.99856185913086</v>
       </c>
       <c r="N21">
-        <v>50.99320411682129</v>
+        <v>51.54633522033691</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5888,16 +5891,16 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0.2</v>
@@ -5912,13 +5915,13 @@
         <v>4</v>
       </c>
       <c r="L22">
-        <v>13.08846473693848</v>
+        <v>17.99798011779785</v>
       </c>
       <c r="M22">
-        <v>8.00013542175293</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N22">
-        <v>21.08860015869141</v>
+        <v>22.99785614013672</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5932,10 +5935,10 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -5956,13 +5959,13 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>13.08846473693848</v>
+        <v>17.99798011779785</v>
       </c>
       <c r="M23">
-        <v>8.00013542175293</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N23">
-        <v>21.08860015869141</v>
+        <v>22.99785614013672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5976,16 +5979,16 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0.2</v>
@@ -6000,13 +6003,13 @@
         <v>4</v>
       </c>
       <c r="L24">
-        <v>13.08846473693848</v>
+        <v>17.99798011779785</v>
       </c>
       <c r="M24">
-        <v>8.00013542175293</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N24">
-        <v>21.08860015869141</v>
+        <v>22.99785614013672</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -6020,10 +6023,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -6044,13 +6047,13 @@
         <v>4</v>
       </c>
       <c r="L25">
-        <v>13.08846473693848</v>
+        <v>17.99798011779785</v>
       </c>
       <c r="M25">
-        <v>8.00013542175293</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N25">
-        <v>21.08860015869141</v>
+        <v>22.99785614013672</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6061,13 +6064,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -6085,16 +6088,16 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>13.57436180114746</v>
       </c>
       <c r="M26">
-        <v>48.09713363647461</v>
+        <v>7.999420166015625</v>
       </c>
       <c r="N26">
-        <v>48.09713363647461</v>
+        <v>21.57378196716309</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6108,16 +6111,16 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0.4</v>
@@ -6132,13 +6135,13 @@
         <v>4</v>
       </c>
       <c r="L27">
-        <v>13.43035697937012</v>
+        <v>13.57436180114746</v>
       </c>
       <c r="M27">
-        <v>14.52136039733887</v>
+        <v>7.999420166015625</v>
       </c>
       <c r="N27">
-        <v>27.95171737670898</v>
+        <v>21.57378196716309</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6152,16 +6155,16 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0.4</v>
@@ -6176,13 +6179,13 @@
         <v>4</v>
       </c>
       <c r="L28">
-        <v>13.43035697937012</v>
+        <v>13.57436180114746</v>
       </c>
       <c r="M28">
-        <v>14.52136039733887</v>
+        <v>7.999420166015625</v>
       </c>
       <c r="N28">
-        <v>27.95171737670898</v>
+        <v>21.57378196716309</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6196,13 +6199,13 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -6220,13 +6223,13 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>13.43035697937012</v>
+        <v>13.57436180114746</v>
       </c>
       <c r="M29">
-        <v>14.52136039733887</v>
+        <v>7.999420166015625</v>
       </c>
       <c r="N29">
-        <v>27.95171737670898</v>
+        <v>21.57378196716309</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6240,19 +6243,19 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I30">
         <v>100</v>
@@ -6264,13 +6267,13 @@
         <v>4</v>
       </c>
       <c r="L30">
-        <v>13.43035697937012</v>
+        <v>18.00036430358887</v>
       </c>
       <c r="M30">
-        <v>14.52136039733887</v>
+        <v>19.99759674072266</v>
       </c>
       <c r="N30">
-        <v>27.95171737670898</v>
+        <v>37.99796104431152</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6284,16 +6287,16 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0.6</v>
@@ -6308,13 +6311,13 @@
         <v>4</v>
       </c>
       <c r="L31">
-        <v>16.00432395935059</v>
+        <v>18.00036430358887</v>
       </c>
       <c r="M31">
-        <v>20.61820030212402</v>
+        <v>19.99759674072266</v>
       </c>
       <c r="N31">
-        <v>36.62252426147461</v>
+        <v>37.99796104431152</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6328,13 +6331,13 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -6352,13 +6355,13 @@
         <v>4</v>
       </c>
       <c r="L32">
-        <v>16.00432395935059</v>
+        <v>18.00036430358887</v>
       </c>
       <c r="M32">
-        <v>20.61820030212402</v>
+        <v>19.99759674072266</v>
       </c>
       <c r="N32">
-        <v>36.62252426147461</v>
+        <v>37.99796104431152</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6372,13 +6375,13 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -6396,13 +6399,13 @@
         <v>4</v>
       </c>
       <c r="L33">
-        <v>16.00432395935059</v>
+        <v>18.00036430358887</v>
       </c>
       <c r="M33">
-        <v>20.61820030212402</v>
+        <v>19.99759674072266</v>
       </c>
       <c r="N33">
-        <v>36.62252426147461</v>
+        <v>37.99796104431152</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6416,19 +6419,19 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -6440,13 +6443,13 @@
         <v>4</v>
       </c>
       <c r="L34">
-        <v>16.00432395935059</v>
+        <v>15.06233215332031</v>
       </c>
       <c r="M34">
-        <v>20.61820030212402</v>
+        <v>27.82320976257324</v>
       </c>
       <c r="N34">
-        <v>36.62252426147461</v>
+        <v>42.88554191589355</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6460,16 +6463,16 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0.8</v>
@@ -6484,13 +6487,13 @@
         <v>4</v>
       </c>
       <c r="L35">
-        <v>12.41970062255859</v>
+        <v>15.06233215332031</v>
       </c>
       <c r="M35">
-        <v>21.99339866638184</v>
+        <v>27.82320976257324</v>
       </c>
       <c r="N35">
-        <v>34.41309928894043</v>
+        <v>42.88554191589355</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6504,13 +6507,13 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -6528,13 +6531,13 @@
         <v>4</v>
       </c>
       <c r="L36">
-        <v>12.41970062255859</v>
+        <v>15.06233215332031</v>
       </c>
       <c r="M36">
-        <v>21.99339866638184</v>
+        <v>27.82320976257324</v>
       </c>
       <c r="N36">
-        <v>34.41309928894043</v>
+        <v>42.88554191589355</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6548,16 +6551,16 @@
         <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0.8</v>
@@ -6572,13 +6575,13 @@
         <v>4</v>
       </c>
       <c r="L37">
-        <v>12.41970062255859</v>
+        <v>15.06233215332031</v>
       </c>
       <c r="M37">
-        <v>21.99339866638184</v>
+        <v>27.82320976257324</v>
       </c>
       <c r="N37">
-        <v>34.41309928894043</v>
+        <v>42.88554191589355</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6592,19 +6595,19 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>100</v>
@@ -6616,13 +6619,13 @@
         <v>4</v>
       </c>
       <c r="L38">
-        <v>12.41970062255859</v>
+        <v>16.1130428314209</v>
       </c>
       <c r="M38">
-        <v>21.99339866638184</v>
+        <v>30.39813041687012</v>
       </c>
       <c r="N38">
-        <v>34.41309928894043</v>
+        <v>46.51117324829102</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6636,13 +6639,13 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -6660,13 +6663,13 @@
         <v>4</v>
       </c>
       <c r="L39">
-        <v>15.98620414733887</v>
+        <v>16.1130428314209</v>
       </c>
       <c r="M39">
-        <v>33.0204963684082</v>
+        <v>30.39813041687012</v>
       </c>
       <c r="N39">
-        <v>49.00670051574707</v>
+        <v>46.51117324829102</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6680,13 +6683,13 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -6704,13 +6707,13 @@
         <v>4</v>
       </c>
       <c r="L40">
-        <v>15.98620414733887</v>
+        <v>16.1130428314209</v>
       </c>
       <c r="M40">
-        <v>33.0204963684082</v>
+        <v>30.39813041687012</v>
       </c>
       <c r="N40">
-        <v>49.00670051574707</v>
+        <v>46.51117324829102</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6724,13 +6727,13 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -6748,13 +6751,13 @@
         <v>4</v>
       </c>
       <c r="L41">
-        <v>15.98620414733887</v>
+        <v>16.1130428314209</v>
       </c>
       <c r="M41">
-        <v>33.0204963684082</v>
+        <v>30.39813041687012</v>
       </c>
       <c r="N41">
-        <v>49.00670051574707</v>
+        <v>46.51117324829102</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6765,22 +6768,22 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
         <v>100</v>
@@ -6789,16 +6792,16 @@
         <v>10</v>
       </c>
       <c r="K42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L42">
-        <v>15.98620414733887</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>33.0204963684082</v>
+        <v>63.05861473083496</v>
       </c>
       <c r="N42">
-        <v>49.00670051574707</v>
+        <v>63.05861473083496</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6833,16 +6836,16 @@
         <v>10</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>12.76397705078125</v>
+        <v>12.99262046813965</v>
       </c>
       <c r="M43">
-        <v>1.863956451416016</v>
+        <v>11.07525825500488</v>
       </c>
       <c r="N43">
-        <v>14.62793350219727</v>
+        <v>24.06787872314453</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6859,16 +6862,16 @@
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I44">
         <v>100</v>
@@ -6880,13 +6883,13 @@
         <v>4</v>
       </c>
       <c r="L44">
-        <v>14.40668106079102</v>
+        <v>12.99262046813965</v>
       </c>
       <c r="M44">
-        <v>10.88833808898926</v>
+        <v>11.07525825500488</v>
       </c>
       <c r="N44">
-        <v>25.29501914978027</v>
+        <v>24.06787872314453</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6903,16 +6906,16 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I45">
         <v>100</v>
@@ -6924,13 +6927,13 @@
         <v>4</v>
       </c>
       <c r="L45">
-        <v>14.40668106079102</v>
+        <v>12.99262046813965</v>
       </c>
       <c r="M45">
-        <v>10.88833808898926</v>
+        <v>11.07525825500488</v>
       </c>
       <c r="N45">
-        <v>25.29501914978027</v>
+        <v>24.06787872314453</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6947,16 +6950,16 @@
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I46">
         <v>100</v>
@@ -6968,13 +6971,13 @@
         <v>4</v>
       </c>
       <c r="L46">
-        <v>14.40668106079102</v>
+        <v>12.99262046813965</v>
       </c>
       <c r="M46">
-        <v>10.88833808898926</v>
+        <v>11.07525825500488</v>
       </c>
       <c r="N46">
-        <v>25.29501914978027</v>
+        <v>24.06787872314453</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -6991,10 +6994,10 @@
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -7012,13 +7015,13 @@
         <v>4</v>
       </c>
       <c r="L47">
-        <v>14.40668106079102</v>
+        <v>13.09823989868164</v>
       </c>
       <c r="M47">
-        <v>10.88833808898926</v>
+        <v>12.99595832824707</v>
       </c>
       <c r="N47">
-        <v>25.29501914978027</v>
+        <v>26.09419822692871</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7035,16 +7038,16 @@
         <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I48">
         <v>100</v>
@@ -7056,13 +7059,13 @@
         <v>4</v>
       </c>
       <c r="L48">
-        <v>14.15872573852539</v>
+        <v>13.09823989868164</v>
       </c>
       <c r="M48">
-        <v>23.58293533325195</v>
+        <v>12.99595832824707</v>
       </c>
       <c r="N48">
-        <v>37.74166107177734</v>
+        <v>26.09419822692871</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7079,16 +7082,16 @@
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I49">
         <v>100</v>
@@ -7100,13 +7103,13 @@
         <v>4</v>
       </c>
       <c r="L49">
-        <v>14.15872573852539</v>
+        <v>13.09823989868164</v>
       </c>
       <c r="M49">
-        <v>23.58293533325195</v>
+        <v>12.99595832824707</v>
       </c>
       <c r="N49">
-        <v>37.74166107177734</v>
+        <v>26.09419822692871</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7123,16 +7126,16 @@
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -7144,13 +7147,13 @@
         <v>4</v>
       </c>
       <c r="L50">
-        <v>14.15872573852539</v>
+        <v>13.09823989868164</v>
       </c>
       <c r="M50">
-        <v>23.58293533325195</v>
+        <v>12.99595832824707</v>
       </c>
       <c r="N50">
-        <v>37.74166107177734</v>
+        <v>26.09419822692871</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7167,10 +7170,10 @@
         <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -7188,13 +7191,13 @@
         <v>4</v>
       </c>
       <c r="L51">
-        <v>14.15872573852539</v>
+        <v>18.56541633605957</v>
       </c>
       <c r="M51">
-        <v>23.58293533325195</v>
+        <v>20.52021026611328</v>
       </c>
       <c r="N51">
-        <v>37.74166107177734</v>
+        <v>39.08562660217285</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7211,16 +7214,16 @@
         <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I52">
         <v>100</v>
@@ -7232,13 +7235,13 @@
         <v>4</v>
       </c>
       <c r="L52">
-        <v>13.0918025970459</v>
+        <v>18.56541633605957</v>
       </c>
       <c r="M52">
-        <v>24.98435974121094</v>
+        <v>20.52021026611328</v>
       </c>
       <c r="N52">
-        <v>38.07616233825684</v>
+        <v>39.08562660217285</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7255,16 +7258,16 @@
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I53">
         <v>100</v>
@@ -7276,13 +7279,13 @@
         <v>4</v>
       </c>
       <c r="L53">
-        <v>13.0918025970459</v>
+        <v>18.56541633605957</v>
       </c>
       <c r="M53">
-        <v>24.98435974121094</v>
+        <v>20.52021026611328</v>
       </c>
       <c r="N53">
-        <v>38.07616233825684</v>
+        <v>39.08562660217285</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -7299,16 +7302,16 @@
         <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I54">
         <v>100</v>
@@ -7320,13 +7323,13 @@
         <v>4</v>
       </c>
       <c r="L54">
-        <v>13.0918025970459</v>
+        <v>18.56541633605957</v>
       </c>
       <c r="M54">
-        <v>24.98435974121094</v>
+        <v>20.52021026611328</v>
       </c>
       <c r="N54">
-        <v>38.07616233825684</v>
+        <v>39.08562660217285</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -7343,10 +7346,10 @@
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -7364,13 +7367,13 @@
         <v>4</v>
       </c>
       <c r="L55">
-        <v>13.0918025970459</v>
+        <v>12.98403739929199</v>
       </c>
       <c r="M55">
-        <v>24.98435974121094</v>
+        <v>25.81000328063965</v>
       </c>
       <c r="N55">
-        <v>38.07616233825684</v>
+        <v>38.79404067993164</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7387,16 +7390,16 @@
         <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I56">
         <v>100</v>
@@ -7408,13 +7411,13 @@
         <v>4</v>
       </c>
       <c r="L56">
-        <v>16.0067081451416</v>
+        <v>12.98403739929199</v>
       </c>
       <c r="M56">
-        <v>30.11155128479004</v>
+        <v>25.81000328063965</v>
       </c>
       <c r="N56">
-        <v>46.11825942993164</v>
+        <v>38.79404067993164</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7431,16 +7434,16 @@
         <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -7452,13 +7455,13 @@
         <v>4</v>
       </c>
       <c r="L57">
-        <v>16.0067081451416</v>
+        <v>12.98403739929199</v>
       </c>
       <c r="M57">
-        <v>30.11155128479004</v>
+        <v>25.81000328063965</v>
       </c>
       <c r="N57">
-        <v>46.11825942993164</v>
+        <v>38.79404067993164</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7475,16 +7478,16 @@
         <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I58">
         <v>100</v>
@@ -7496,13 +7499,13 @@
         <v>4</v>
       </c>
       <c r="L58">
-        <v>16.0067081451416</v>
+        <v>12.98403739929199</v>
       </c>
       <c r="M58">
-        <v>30.11155128479004</v>
+        <v>25.81000328063965</v>
       </c>
       <c r="N58">
-        <v>46.11825942993164</v>
+        <v>38.79404067993164</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7519,10 +7522,10 @@
         <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -7540,13 +7543,13 @@
         <v>4</v>
       </c>
       <c r="L59">
-        <v>16.0067081451416</v>
+        <v>15.01846313476562</v>
       </c>
       <c r="M59">
-        <v>30.11155128479004</v>
+        <v>29.64186668395996</v>
       </c>
       <c r="N59">
-        <v>46.11825942993164</v>
+        <v>44.66032981872559</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7560,19 +7563,19 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>100</v>
@@ -7584,13 +7587,13 @@
         <v>4</v>
       </c>
       <c r="L60">
-        <v>12.01701164245605</v>
+        <v>15.01846313476562</v>
       </c>
       <c r="M60">
-        <v>5.703926086425781</v>
+        <v>29.64186668395996</v>
       </c>
       <c r="N60">
-        <v>17.72093772888184</v>
+        <v>44.66032981872559</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7604,19 +7607,19 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>100</v>
@@ -7628,13 +7631,13 @@
         <v>4</v>
       </c>
       <c r="L61">
-        <v>12.01701164245605</v>
+        <v>15.01846313476562</v>
       </c>
       <c r="M61">
-        <v>5.703926086425781</v>
+        <v>29.64186668395996</v>
       </c>
       <c r="N61">
-        <v>17.72093772888184</v>
+        <v>44.66032981872559</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7648,19 +7651,19 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>100</v>
@@ -7672,13 +7675,13 @@
         <v>4</v>
       </c>
       <c r="L62">
-        <v>12.01701164245605</v>
+        <v>15.01846313476562</v>
       </c>
       <c r="M62">
-        <v>5.703926086425781</v>
+        <v>29.64186668395996</v>
       </c>
       <c r="N62">
-        <v>17.72093772888184</v>
+        <v>44.66032981872559</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7689,16 +7692,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -7713,16 +7716,16 @@
         <v>10</v>
       </c>
       <c r="K63">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L63">
-        <v>12.01701164245605</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>5.703926086425781</v>
+        <v>15.51485061645508</v>
       </c>
       <c r="N63">
-        <v>17.72093772888184</v>
+        <v>15.51485061645508</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -7736,10 +7739,10 @@
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -7748,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I64">
         <v>100</v>
@@ -7760,13 +7763,13 @@
         <v>4</v>
       </c>
       <c r="L64">
-        <v>14.75739479064941</v>
+        <v>16.00122451782227</v>
       </c>
       <c r="M64">
-        <v>13.99803161621094</v>
+        <v>9.01484489440918</v>
       </c>
       <c r="N64">
-        <v>28.75542640686035</v>
+        <v>25.01606941223145</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -7780,10 +7783,10 @@
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -7792,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I65">
         <v>100</v>
@@ -7804,13 +7807,13 @@
         <v>4</v>
       </c>
       <c r="L65">
-        <v>14.75739479064941</v>
+        <v>16.00122451782227</v>
       </c>
       <c r="M65">
-        <v>13.99803161621094</v>
+        <v>9.01484489440918</v>
       </c>
       <c r="N65">
-        <v>28.75542640686035</v>
+        <v>25.01606941223145</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -7824,10 +7827,10 @@
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -7836,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I66">
         <v>100</v>
@@ -7848,13 +7851,13 @@
         <v>4</v>
       </c>
       <c r="L66">
-        <v>14.75739479064941</v>
+        <v>16.00122451782227</v>
       </c>
       <c r="M66">
-        <v>13.99803161621094</v>
+        <v>9.01484489440918</v>
       </c>
       <c r="N66">
-        <v>28.75542640686035</v>
+        <v>25.01606941223145</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7868,10 +7871,10 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -7880,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I67">
         <v>100</v>
@@ -7892,13 +7895,13 @@
         <v>4</v>
       </c>
       <c r="L67">
-        <v>14.75739479064941</v>
+        <v>16.00122451782227</v>
       </c>
       <c r="M67">
-        <v>13.99803161621094</v>
+        <v>9.01484489440918</v>
       </c>
       <c r="N67">
-        <v>28.75542640686035</v>
+        <v>25.01606941223145</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -7912,19 +7915,19 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I68">
         <v>100</v>
@@ -7936,13 +7939,13 @@
         <v>4</v>
       </c>
       <c r="L68">
-        <v>13.98468017578125</v>
+        <v>12.12334632873535</v>
       </c>
       <c r="M68">
-        <v>18.69368553161621</v>
+        <v>9.977102279663086</v>
       </c>
       <c r="N68">
-        <v>32.67836570739746</v>
+        <v>22.10044860839844</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7956,10 +7959,10 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -7968,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I69">
         <v>100</v>
@@ -7980,13 +7983,13 @@
         <v>4</v>
       </c>
       <c r="L69">
-        <v>13.98468017578125</v>
+        <v>12.12334632873535</v>
       </c>
       <c r="M69">
-        <v>18.69368553161621</v>
+        <v>9.977102279663086</v>
       </c>
       <c r="N69">
-        <v>32.67836570739746</v>
+        <v>22.10044860839844</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -8000,19 +8003,19 @@
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I70">
         <v>100</v>
@@ -8024,13 +8027,13 @@
         <v>4</v>
       </c>
       <c r="L70">
-        <v>13.98468017578125</v>
+        <v>12.12334632873535</v>
       </c>
       <c r="M70">
-        <v>18.69368553161621</v>
+        <v>9.977102279663086</v>
       </c>
       <c r="N70">
-        <v>32.67836570739746</v>
+        <v>22.10044860839844</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -8044,10 +8047,10 @@
         <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -8056,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I71">
         <v>100</v>
@@ -8068,13 +8071,13 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <v>13.98468017578125</v>
+        <v>12.12334632873535</v>
       </c>
       <c r="M71">
-        <v>18.69368553161621</v>
+        <v>9.977102279663086</v>
       </c>
       <c r="N71">
-        <v>32.67836570739746</v>
+        <v>22.10044860839844</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -8088,10 +8091,10 @@
         <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -8100,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I72">
         <v>100</v>
@@ -8112,13 +8115,13 @@
         <v>4</v>
       </c>
       <c r="L72">
-        <v>12.98618316650391</v>
+        <v>20.00594139099121</v>
       </c>
       <c r="M72">
-        <v>22.63927459716797</v>
+        <v>24.7495174407959</v>
       </c>
       <c r="N72">
-        <v>35.62545776367188</v>
+        <v>44.75545883178711</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8132,10 +8135,10 @@
         <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -8144,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I73">
         <v>100</v>
@@ -8156,13 +8159,13 @@
         <v>4</v>
       </c>
       <c r="L73">
-        <v>12.98618316650391</v>
+        <v>20.00594139099121</v>
       </c>
       <c r="M73">
-        <v>22.63927459716797</v>
+        <v>24.7495174407959</v>
       </c>
       <c r="N73">
-        <v>35.62545776367188</v>
+        <v>44.75545883178711</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -8176,19 +8179,19 @@
         <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I74">
         <v>100</v>
@@ -8200,13 +8203,13 @@
         <v>4</v>
       </c>
       <c r="L74">
-        <v>12.98618316650391</v>
+        <v>20.00594139099121</v>
       </c>
       <c r="M74">
-        <v>22.63927459716797</v>
+        <v>24.7495174407959</v>
       </c>
       <c r="N74">
-        <v>35.62545776367188</v>
+        <v>44.75545883178711</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -8220,19 +8223,19 @@
         <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F75">
         <v>4</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I75">
         <v>100</v>
@@ -8244,13 +8247,13 @@
         <v>4</v>
       </c>
       <c r="L75">
-        <v>12.98618316650391</v>
+        <v>20.00594139099121</v>
       </c>
       <c r="M75">
-        <v>22.63927459716797</v>
+        <v>24.7495174407959</v>
       </c>
       <c r="N75">
-        <v>35.62545776367188</v>
+        <v>44.75545883178711</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8264,10 +8267,10 @@
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -8276,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I76">
         <v>100</v>
@@ -8288,13 +8291,13 @@
         <v>4</v>
       </c>
       <c r="L76">
-        <v>14.19162750244141</v>
+        <v>13.10539245605469</v>
       </c>
       <c r="M76">
-        <v>30.89165687561035</v>
+        <v>21.89469337463379</v>
       </c>
       <c r="N76">
-        <v>45.08328437805176</v>
+        <v>35.00008583068848</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -8308,10 +8311,10 @@
         <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -8320,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I77">
         <v>100</v>
@@ -8332,13 +8335,13 @@
         <v>4</v>
       </c>
       <c r="L77">
-        <v>14.19162750244141</v>
+        <v>13.10539245605469</v>
       </c>
       <c r="M77">
-        <v>30.89165687561035</v>
+        <v>21.89469337463379</v>
       </c>
       <c r="N77">
-        <v>45.08328437805176</v>
+        <v>35.00008583068848</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -8352,19 +8355,19 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I78">
         <v>100</v>
@@ -8376,13 +8379,13 @@
         <v>4</v>
       </c>
       <c r="L78">
-        <v>14.19162750244141</v>
+        <v>13.10539245605469</v>
       </c>
       <c r="M78">
-        <v>30.89165687561035</v>
+        <v>21.89469337463379</v>
       </c>
       <c r="N78">
-        <v>45.08328437805176</v>
+        <v>35.00008583068848</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8396,19 +8399,19 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F79">
         <v>4</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I79">
         <v>100</v>
@@ -8420,13 +8423,13 @@
         <v>4</v>
       </c>
       <c r="L79">
-        <v>14.19162750244141</v>
+        <v>13.10539245605469</v>
       </c>
       <c r="M79">
-        <v>30.89165687561035</v>
+        <v>21.89469337463379</v>
       </c>
       <c r="N79">
-        <v>45.08328437805176</v>
+        <v>35.00008583068848</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8440,10 +8443,10 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -8452,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>100</v>
@@ -8461,16 +8464,16 @@
         <v>10</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L80">
-        <v>14.41073417663574</v>
+        <v>18.01419258117676</v>
       </c>
       <c r="M80">
-        <v>2.003908157348633</v>
+        <v>35.02559661865234</v>
       </c>
       <c r="N80">
-        <v>16.41464233398438</v>
+        <v>53.0397891998291</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8481,22 +8484,22 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>100</v>
@@ -8505,16 +8508,16 @@
         <v>10</v>
       </c>
       <c r="K81">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>18.01419258117676</v>
       </c>
       <c r="M81">
-        <v>11.00754737854004</v>
+        <v>35.02559661865234</v>
       </c>
       <c r="N81">
-        <v>11.00754737854004</v>
+        <v>53.0397891998291</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8528,19 +8531,19 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>100</v>
@@ -8549,16 +8552,16 @@
         <v>10</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82">
-        <v>14.01686668395996</v>
+        <v>18.01419258117676</v>
       </c>
       <c r="M82">
-        <v>2.100706100463867</v>
+        <v>35.02559661865234</v>
       </c>
       <c r="N82">
-        <v>16.11757278442383</v>
+        <v>53.0397891998291</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8572,19 +8575,19 @@
         <v>17</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>100</v>
@@ -8593,16 +8596,16 @@
         <v>10</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L83">
-        <v>15.10787010192871</v>
+        <v>18.01419258117676</v>
       </c>
       <c r="M83">
-        <v>3.995895385742188</v>
+        <v>35.02559661865234</v>
       </c>
       <c r="N83">
-        <v>19.1037654876709</v>
+        <v>53.0397891998291</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8613,13 +8616,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -8628,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I84">
         <v>100</v>
@@ -8637,16 +8640,16 @@
         <v>10</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>12.56060600280762</v>
       </c>
       <c r="M84">
-        <v>8.998394012451172</v>
+        <v>2.001047134399414</v>
       </c>
       <c r="N84">
-        <v>8.998394012451172</v>
+        <v>14.56165313720703</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8657,13 +8660,13 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -8672,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I85">
         <v>100</v>
@@ -8681,16 +8684,16 @@
         <v>10</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L85">
-        <v>13.93413543701172</v>
+        <v>0</v>
       </c>
       <c r="M85">
-        <v>2.995967864990234</v>
+        <v>15.1817798614502</v>
       </c>
       <c r="N85">
-        <v>16.93010330200195</v>
+        <v>15.1817798614502</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8701,13 +8704,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -8716,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I86">
         <v>100</v>
@@ -8725,16 +8728,16 @@
         <v>10</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>18.97835731506348</v>
       </c>
       <c r="M86">
-        <v>8.402585983276367</v>
+        <v>5.368947982788086</v>
       </c>
       <c r="N86">
-        <v>8.402585983276367</v>
+        <v>24.34730529785156</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8745,13 +8748,13 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -8760,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -8769,16 +8772,16 @@
         <v>10</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L87">
-        <v>20.00045776367188</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>8.996725082397461</v>
+        <v>8.743047714233398</v>
       </c>
       <c r="N87">
-        <v>28.99718284606934</v>
+        <v>8.743047714233398</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8789,22 +8792,22 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I88">
         <v>100</v>
@@ -8813,16 +8816,16 @@
         <v>10</v>
       </c>
       <c r="K88">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>13.11492919921875</v>
       </c>
       <c r="M88">
-        <v>15.99836349487305</v>
+        <v>2.986669540405273</v>
       </c>
       <c r="N88">
-        <v>15.99836349487305</v>
+        <v>16.10159873962402</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8833,13 +8836,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -8848,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I89">
         <v>100</v>
@@ -8857,16 +8860,16 @@
         <v>10</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L89">
-        <v>13.50545883178711</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>3.01361083984375</v>
+        <v>12.26997375488281</v>
       </c>
       <c r="N89">
-        <v>16.51906967163086</v>
+        <v>12.26997375488281</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8877,13 +8880,13 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -8892,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -8901,16 +8904,16 @@
         <v>10</v>
       </c>
       <c r="K90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>19.08469200134277</v>
       </c>
       <c r="M90">
-        <v>8.414030075073242</v>
+        <v>5.514383316040039</v>
       </c>
       <c r="N90">
-        <v>8.414030075073242</v>
+        <v>24.59907531738281</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8921,13 +8924,13 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -8936,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>100</v>
@@ -8945,16 +8948,16 @@
         <v>10</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L91">
-        <v>15.63096046447754</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>3.015756607055664</v>
+        <v>7.041692733764648</v>
       </c>
       <c r="N91">
-        <v>18.6467170715332</v>
+        <v>7.041692733764648</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8965,13 +8968,13 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -8980,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -8989,16 +8992,16 @@
         <v>10</v>
       </c>
       <c r="K92">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>12.92037963867188</v>
       </c>
       <c r="M92">
-        <v>17.04287528991699</v>
+        <v>5.034208297729492</v>
       </c>
       <c r="N92">
-        <v>17.04287528991699</v>
+        <v>17.95458793640137</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -9009,22 +9012,22 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I93">
         <v>100</v>
@@ -9033,16 +9036,16 @@
         <v>10</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L93">
-        <v>13.01312446594238</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>2.093076705932617</v>
+        <v>25.48575401306152</v>
       </c>
       <c r="N93">
-        <v>15.106201171875</v>
+        <v>25.48575401306152</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -9053,13 +9056,13 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -9068,7 +9071,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I94">
         <v>100</v>
@@ -9077,16 +9080,16 @@
         <v>10</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>17.30036735534668</v>
       </c>
       <c r="M94">
-        <v>7.133007049560547</v>
+        <v>4.027128219604492</v>
       </c>
       <c r="N94">
-        <v>7.133007049560547</v>
+        <v>21.32749557495117</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9097,13 +9100,13 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -9112,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
         <v>100</v>
@@ -9121,16 +9124,16 @@
         <v>10</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L95">
-        <v>17.50707626342773</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>3.107070922851562</v>
+        <v>16.95609092712402</v>
       </c>
       <c r="N95">
-        <v>20.6141471862793</v>
+        <v>16.95609092712402</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9141,13 +9144,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -9156,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I96">
         <v>100</v>
@@ -9165,16 +9168,16 @@
         <v>10</v>
       </c>
       <c r="K96">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>13.02313804626465</v>
       </c>
       <c r="M96">
-        <v>5.544900894165039</v>
+        <v>2.111911773681641</v>
       </c>
       <c r="N96">
-        <v>5.544900894165039</v>
+        <v>15.13504981994629</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9185,13 +9188,13 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -9200,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I97">
         <v>100</v>
@@ -9209,16 +9212,16 @@
         <v>10</v>
       </c>
       <c r="K97">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L97">
-        <v>14.09196853637695</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>2.000331878662109</v>
+        <v>9.002447128295898</v>
       </c>
       <c r="N97">
-        <v>16.09230041503906</v>
+        <v>9.002447128295898</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9229,22 +9232,22 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I98">
         <v>100</v>
@@ -9253,16 +9256,16 @@
         <v>10</v>
       </c>
       <c r="K98">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>20.01476287841797</v>
       </c>
       <c r="M98">
-        <v>23.11301231384277</v>
+        <v>2.992391586303711</v>
       </c>
       <c r="N98">
-        <v>23.11301231384277</v>
+        <v>23.00715446472168</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9273,13 +9276,13 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -9288,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I99">
         <v>100</v>
@@ -9297,16 +9300,16 @@
         <v>10</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L99">
-        <v>14.90640640258789</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>2.098798751831055</v>
+        <v>5.994319915771484</v>
       </c>
       <c r="N99">
-        <v>17.00520515441895</v>
+        <v>5.994319915771484</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9317,13 +9320,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -9332,7 +9335,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I100">
         <v>100</v>
@@ -9341,16 +9344,16 @@
         <v>10</v>
       </c>
       <c r="K100">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>13.68594169616699</v>
       </c>
       <c r="M100">
-        <v>7.073402404785156</v>
+        <v>1.006364822387695</v>
       </c>
       <c r="N100">
-        <v>7.073402404785156</v>
+        <v>14.69230651855469</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9361,13 +9364,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -9376,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>100</v>
@@ -9385,16 +9388,16 @@
         <v>10</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L101">
-        <v>12.99238204956055</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>2.001523971557617</v>
+        <v>5.972862243652344</v>
       </c>
       <c r="N101">
-        <v>14.99390602111816</v>
+        <v>5.972862243652344</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -9408,10 +9411,10 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -9420,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>100</v>
@@ -9432,13 +9435,13 @@
         <v>2</v>
       </c>
       <c r="L102">
-        <v>14.9993896484375</v>
+        <v>17.52281188964844</v>
       </c>
       <c r="M102">
-        <v>3.002643585205078</v>
+        <v>1.982212066650391</v>
       </c>
       <c r="N102">
-        <v>18.00203323364258</v>
+        <v>19.50502395629883</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9449,13 +9452,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -9464,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
         <v>100</v>
@@ -9473,16 +9476,16 @@
         <v>10</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>12.07304000854492</v>
       </c>
       <c r="M103">
-        <v>5.910158157348633</v>
+        <v>3.003597259521484</v>
       </c>
       <c r="N103">
-        <v>5.910158157348633</v>
+        <v>15.07663726806641</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9496,10 +9499,10 @@
         <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -9508,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I104">
         <v>100</v>
@@ -9520,13 +9523,13 @@
         <v>2</v>
       </c>
       <c r="L104">
-        <v>13.08107376098633</v>
+        <v>15.98620414733887</v>
       </c>
       <c r="M104">
-        <v>2.009391784667969</v>
+        <v>4.007577896118164</v>
       </c>
       <c r="N104">
-        <v>15.0904655456543</v>
+        <v>19.99378204345703</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -9540,10 +9543,10 @@
         <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -9552,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I105">
         <v>100</v>
@@ -9567,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>4.98509407043457</v>
+        <v>8.999109268188477</v>
       </c>
       <c r="N105">
-        <v>4.98509407043457</v>
+        <v>8.999109268188477</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -9584,10 +9587,10 @@
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -9596,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I106">
         <v>100</v>
@@ -9608,13 +9611,13 @@
         <v>2</v>
       </c>
       <c r="L106">
-        <v>17.01521873474121</v>
+        <v>12.9997730255127</v>
       </c>
       <c r="M106">
-        <v>1.988887786865234</v>
+        <v>2.00200080871582</v>
       </c>
       <c r="N106">
-        <v>19.00410652160645</v>
+        <v>15.00177383422852</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9625,22 +9628,22 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F107">
         <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I107">
         <v>100</v>
@@ -9649,16 +9652,16 @@
         <v>10</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L107">
-        <v>13.06819915771484</v>
+        <v>0</v>
       </c>
       <c r="M107">
-        <v>7.086515426635742</v>
+        <v>7.030487060546875</v>
       </c>
       <c r="N107">
-        <v>20.15471458435059</v>
+        <v>7.030487060546875</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -9672,37 +9675,37 @@
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0.8</v>
+      </c>
+      <c r="I108">
+        <v>100</v>
+      </c>
+      <c r="J108">
+        <v>10</v>
+      </c>
+      <c r="K108">
         <v>2</v>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108">
-        <v>0.2</v>
-      </c>
-      <c r="I108">
-        <v>100</v>
-      </c>
-      <c r="J108">
-        <v>10</v>
-      </c>
-      <c r="K108">
-        <v>3</v>
-      </c>
       <c r="L108">
-        <v>13.06819915771484</v>
+        <v>15.05255699157715</v>
       </c>
       <c r="M108">
-        <v>7.086515426635742</v>
+        <v>0.9932518005371094</v>
       </c>
       <c r="N108">
-        <v>20.15471458435059</v>
+        <v>16.04580879211426</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -9713,22 +9716,22 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>100</v>
@@ -9737,16 +9740,16 @@
         <v>10</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L109">
-        <v>13.06819915771484</v>
+        <v>0</v>
       </c>
       <c r="M109">
-        <v>7.086515426635742</v>
+        <v>6.006717681884766</v>
       </c>
       <c r="N109">
-        <v>20.15471458435059</v>
+        <v>6.006717681884766</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -9757,13 +9760,13 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -9772,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>100</v>
@@ -9781,16 +9784,16 @@
         <v>10</v>
       </c>
       <c r="K110">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>13.00382614135742</v>
       </c>
       <c r="M110">
-        <v>24.90830421447754</v>
+        <v>2.108097076416016</v>
       </c>
       <c r="N110">
-        <v>24.90830421447754</v>
+        <v>15.11192321777344</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -9804,10 +9807,10 @@
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -9816,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I111">
         <v>100</v>
@@ -9828,13 +9831,13 @@
         <v>3</v>
       </c>
       <c r="L111">
-        <v>14.93525505065918</v>
+        <v>17.56930351257324</v>
       </c>
       <c r="M111">
-        <v>20.62320709228516</v>
+        <v>5.379199981689453</v>
       </c>
       <c r="N111">
-        <v>35.55846214294434</v>
+        <v>22.9485034942627</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9848,19 +9851,19 @@
         <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I112">
         <v>100</v>
@@ -9872,13 +9875,13 @@
         <v>3</v>
       </c>
       <c r="L112">
-        <v>14.93525505065918</v>
+        <v>17.56930351257324</v>
       </c>
       <c r="M112">
-        <v>20.62320709228516</v>
+        <v>5.379199981689453</v>
       </c>
       <c r="N112">
-        <v>35.55846214294434</v>
+        <v>22.9485034942627</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9892,19 +9895,19 @@
         <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F113">
         <v>3</v>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I113">
         <v>100</v>
@@ -9916,13 +9919,13 @@
         <v>3</v>
       </c>
       <c r="L113">
-        <v>14.93525505065918</v>
+        <v>17.56930351257324</v>
       </c>
       <c r="M113">
-        <v>20.62320709228516</v>
+        <v>5.379199981689453</v>
       </c>
       <c r="N113">
-        <v>35.55846214294434</v>
+        <v>22.9485034942627</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -9933,13 +9936,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -9948,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I114">
         <v>100</v>
@@ -9957,16 +9960,16 @@
         <v>10</v>
       </c>
       <c r="K114">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>0</v>
+        <v>12.09926605224609</v>
       </c>
       <c r="M114">
-        <v>23.70715141296387</v>
+        <v>4.991531372070312</v>
       </c>
       <c r="N114">
-        <v>23.70715141296387</v>
+        <v>17.09079742431641</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -9977,19 +9980,19 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0.6</v>
@@ -10001,16 +10004,16 @@
         <v>10</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L115">
-        <v>12.99667358398438</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>17.02070236206055</v>
+        <v>30.26986122131348</v>
       </c>
       <c r="N115">
-        <v>30.01737594604492</v>
+        <v>30.26986122131348</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -10024,13 +10027,13 @@
         <v>17</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
@@ -10048,13 +10051,13 @@
         <v>3</v>
       </c>
       <c r="L116">
-        <v>12.99667358398438</v>
+        <v>17.50397682189941</v>
       </c>
       <c r="M116">
-        <v>17.02070236206055</v>
+        <v>18.02682876586914</v>
       </c>
       <c r="N116">
-        <v>30.01737594604492</v>
+        <v>35.53080558776855</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -10068,13 +10071,13 @@
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" t="b">
         <v>0</v>
@@ -10092,13 +10095,13 @@
         <v>3</v>
       </c>
       <c r="L117">
-        <v>12.99667358398438</v>
+        <v>17.50397682189941</v>
       </c>
       <c r="M117">
-        <v>17.02070236206055</v>
+        <v>18.02682876586914</v>
       </c>
       <c r="N117">
-        <v>30.01737594604492</v>
+        <v>35.53080558776855</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -10109,22 +10112,22 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I118">
         <v>100</v>
@@ -10133,16 +10136,16 @@
         <v>10</v>
       </c>
       <c r="K118">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>17.50397682189941</v>
       </c>
       <c r="M118">
-        <v>24.98412132263184</v>
+        <v>18.02682876586914</v>
       </c>
       <c r="N118">
-        <v>24.98412132263184</v>
+        <v>35.53080558776855</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -10153,19 +10156,19 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>0.8</v>
@@ -10177,16 +10180,16 @@
         <v>10</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L119">
-        <v>15.00296592712402</v>
+        <v>0</v>
       </c>
       <c r="M119">
-        <v>20.10512351989746</v>
+        <v>20.81561088562012</v>
       </c>
       <c r="N119">
-        <v>35.10808944702148</v>
+        <v>20.81561088562012</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -10200,16 +10203,16 @@
         <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>0.8</v>
@@ -10224,13 +10227,13 @@
         <v>3</v>
       </c>
       <c r="L120">
-        <v>15.00296592712402</v>
+        <v>13.59224319458008</v>
       </c>
       <c r="M120">
-        <v>20.10512351989746</v>
+        <v>22.4311351776123</v>
       </c>
       <c r="N120">
-        <v>35.10808944702148</v>
+        <v>36.02337837219238</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -10244,16 +10247,16 @@
         <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>0.8</v>
@@ -10268,13 +10271,13 @@
         <v>3</v>
       </c>
       <c r="L121">
-        <v>15.00296592712402</v>
+        <v>13.59224319458008</v>
       </c>
       <c r="M121">
-        <v>20.10512351989746</v>
+        <v>22.4311351776123</v>
       </c>
       <c r="N121">
-        <v>35.10808944702148</v>
+        <v>36.02337837219238</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -10285,22 +10288,22 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I122">
         <v>100</v>
@@ -10309,16 +10312,16 @@
         <v>10</v>
       </c>
       <c r="K122">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>13.59224319458008</v>
       </c>
       <c r="M122">
-        <v>24.00541305541992</v>
+        <v>22.4311351776123</v>
       </c>
       <c r="N122">
-        <v>24.00541305541992</v>
+        <v>36.02337837219238</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -10329,19 +10332,19 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E123" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -10353,16 +10356,16 @@
         <v>10</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L123">
-        <v>14.1899585723877</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>24.71303939819336</v>
+        <v>29.1144847869873</v>
       </c>
       <c r="N123">
-        <v>38.90299797058105</v>
+        <v>29.1144847869873</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -10376,13 +10379,13 @@
         <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="b">
         <v>0</v>
@@ -10400,13 +10403,13 @@
         <v>3</v>
       </c>
       <c r="L124">
-        <v>14.1899585723877</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M124">
-        <v>24.71303939819336</v>
+        <v>24.58882331848145</v>
       </c>
       <c r="N124">
-        <v>38.90299797058105</v>
+        <v>40.5881404876709</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -10420,16 +10423,16 @@
         <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -10444,13 +10447,13 @@
         <v>3</v>
       </c>
       <c r="L125">
-        <v>14.1899585723877</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M125">
-        <v>24.71303939819336</v>
+        <v>24.58882331848145</v>
       </c>
       <c r="N125">
-        <v>38.90299797058105</v>
+        <v>40.5881404876709</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -10461,7 +10464,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
         <v>44</v>
@@ -10470,13 +10473,13 @@
         <v>44</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>100</v>
@@ -10485,16 +10488,16 @@
         <v>10</v>
       </c>
       <c r="K126">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>15.99931716918945</v>
       </c>
       <c r="M126">
-        <v>13.70978355407715</v>
+        <v>24.58882331848145</v>
       </c>
       <c r="N126">
-        <v>13.70978355407715</v>
+        <v>40.5881404876709</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -10508,10 +10511,10 @@
         <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -10532,13 +10535,13 @@
         <v>2</v>
       </c>
       <c r="L127">
-        <v>13.96679878234863</v>
+        <v>11.99913024902344</v>
       </c>
       <c r="M127">
-        <v>3.003120422363281</v>
+        <v>2.991914749145508</v>
       </c>
       <c r="N127">
-        <v>16.96991920471191</v>
+        <v>14.99104499816895</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -10549,13 +10552,13 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D128" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E128" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -10573,16 +10576,16 @@
         <v>10</v>
       </c>
       <c r="K128">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>15.20943641662598</v>
       </c>
       <c r="M128">
-        <v>9.130239486694336</v>
+        <v>3.998517990112305</v>
       </c>
       <c r="N128">
-        <v>9.130239486694336</v>
+        <v>19.20795440673828</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -10593,13 +10596,13 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -10608,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I129">
         <v>100</v>
@@ -10617,16 +10620,16 @@
         <v>10</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L129">
-        <v>11.98434829711914</v>
+        <v>0</v>
       </c>
       <c r="M129">
-        <v>1.9989013671875</v>
+        <v>12.9997730255127</v>
       </c>
       <c r="N129">
-        <v>13.98324966430664</v>
+        <v>12.9997730255127</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -10637,13 +10640,13 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E130" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -10661,16 +10664,16 @@
         <v>10</v>
       </c>
       <c r="K130">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>14.09173011779785</v>
       </c>
       <c r="M130">
-        <v>6.888151168823242</v>
+        <v>2.006053924560547</v>
       </c>
       <c r="N130">
-        <v>6.888151168823242</v>
+        <v>16.0977840423584</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -10681,13 +10684,13 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -10696,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I131">
         <v>100</v>
@@ -10705,16 +10708,16 @@
         <v>10</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L131">
-        <v>16.08753204345703</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>4.900932312011719</v>
+        <v>11.40809059143066</v>
       </c>
       <c r="N131">
-        <v>20.98846435546875</v>
+        <v>11.40809059143066</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -10725,13 +10728,13 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D132" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -10749,16 +10752,16 @@
         <v>10</v>
       </c>
       <c r="K132">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>0</v>
+        <v>18.02682876586914</v>
       </c>
       <c r="M132">
-        <v>11.10935211181641</v>
+        <v>4.014253616333008</v>
       </c>
       <c r="N132">
-        <v>11.10935211181641</v>
+        <v>22.04108238220215</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -10769,13 +10772,13 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E133" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -10784,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>100</v>
@@ -10793,16 +10796,16 @@
         <v>10</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L133">
-        <v>13.98658752441406</v>
+        <v>0</v>
       </c>
       <c r="M133">
-        <v>5.000114440917969</v>
+        <v>8.006572723388672</v>
       </c>
       <c r="N133">
-        <v>18.98670196533203</v>
+        <v>8.006572723388672</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -10813,13 +10816,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D134" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -10837,16 +10840,16 @@
         <v>10</v>
       </c>
       <c r="K134">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>14.13297653198242</v>
       </c>
       <c r="M134">
-        <v>8.221626281738281</v>
+        <v>3.001928329467773</v>
       </c>
       <c r="N134">
-        <v>8.221626281738281</v>
+        <v>17.1349048614502</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -10860,19 +10863,19 @@
         <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I135">
         <v>100</v>
@@ -10881,16 +10884,16 @@
         <v>10</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>15.99955558776855</v>
+        <v>16.39366149902344</v>
       </c>
       <c r="M135">
-        <v>5.000114440917969</v>
+        <v>8.00633430480957</v>
       </c>
       <c r="N135">
-        <v>20.99967002868652</v>
+        <v>24.39999580383301</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -10901,19 +10904,19 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0.2</v>
@@ -10925,16 +10928,16 @@
         <v>10</v>
       </c>
       <c r="K136">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>16.39366149902344</v>
       </c>
       <c r="M136">
-        <v>20.01309394836426</v>
+        <v>8.00633430480957</v>
       </c>
       <c r="N136">
-        <v>20.01309394836426</v>
+        <v>24.39999580383301</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -10948,16 +10951,16 @@
         <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0.2</v>
@@ -10972,13 +10975,13 @@
         <v>3</v>
       </c>
       <c r="L137">
-        <v>12.9702091217041</v>
+        <v>16.39366149902344</v>
       </c>
       <c r="M137">
-        <v>6.012201309204102</v>
+        <v>8.00633430480957</v>
       </c>
       <c r="N137">
-        <v>18.9824104309082</v>
+        <v>24.39999580383301</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -10992,19 +10995,19 @@
         <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I138">
         <v>100</v>
@@ -11016,13 +11019,13 @@
         <v>3</v>
       </c>
       <c r="L138">
-        <v>12.9702091217041</v>
+        <v>14.43576812744141</v>
       </c>
       <c r="M138">
-        <v>6.012201309204102</v>
+        <v>7.00068473815918</v>
       </c>
       <c r="N138">
-        <v>18.9824104309082</v>
+        <v>21.43645286560059</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -11036,19 +11039,19 @@
         <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I139">
         <v>100</v>
@@ -11060,13 +11063,13 @@
         <v>3</v>
       </c>
       <c r="L139">
-        <v>12.9702091217041</v>
+        <v>14.43576812744141</v>
       </c>
       <c r="M139">
-        <v>6.012201309204102</v>
+        <v>7.00068473815918</v>
       </c>
       <c r="N139">
-        <v>18.9824104309082</v>
+        <v>21.43645286560059</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -11077,19 +11080,19 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>0.4</v>
@@ -11101,16 +11104,16 @@
         <v>10</v>
       </c>
       <c r="K140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>14.43576812744141</v>
       </c>
       <c r="M140">
-        <v>23.91242980957031</v>
+        <v>7.00068473815918</v>
       </c>
       <c r="N140">
-        <v>23.91242980957031</v>
+        <v>21.43645286560059</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -11124,19 +11127,19 @@
         <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E141" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I141">
         <v>100</v>
@@ -11148,13 +11151,13 @@
         <v>3</v>
       </c>
       <c r="L141">
-        <v>15.96641540527344</v>
+        <v>16.88861846923828</v>
       </c>
       <c r="M141">
-        <v>11.00659370422363</v>
+        <v>19.10996437072754</v>
       </c>
       <c r="N141">
-        <v>26.97300910949707</v>
+        <v>35.99858283996582</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -11168,10 +11171,10 @@
         <v>17</v>
       </c>
       <c r="D142" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -11180,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I142">
         <v>100</v>
@@ -11192,13 +11195,13 @@
         <v>3</v>
       </c>
       <c r="L142">
-        <v>15.96641540527344</v>
+        <v>16.88861846923828</v>
       </c>
       <c r="M142">
-        <v>11.00659370422363</v>
+        <v>19.10996437072754</v>
       </c>
       <c r="N142">
-        <v>26.97300910949707</v>
+        <v>35.99858283996582</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -11212,19 +11215,19 @@
         <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F143">
         <v>3</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I143">
         <v>100</v>
@@ -11236,13 +11239,13 @@
         <v>3</v>
       </c>
       <c r="L143">
-        <v>15.96641540527344</v>
+        <v>16.88861846923828</v>
       </c>
       <c r="M143">
-        <v>11.00659370422363</v>
+        <v>19.10996437072754</v>
       </c>
       <c r="N143">
-        <v>26.97300910949707</v>
+        <v>35.99858283996582</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -11256,10 +11259,10 @@
         <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -11268,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I144">
         <v>100</v>
@@ -11283,10 +11286,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>11.05165481567383</v>
+        <v>10.80107688903809</v>
       </c>
       <c r="N144">
-        <v>11.05165481567383</v>
+        <v>10.80107688903809</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -11300,19 +11303,19 @@
         <v>17</v>
       </c>
       <c r="D145" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I145">
         <v>100</v>
@@ -11324,13 +11327,13 @@
         <v>3</v>
       </c>
       <c r="L145">
-        <v>13.15879821777344</v>
+        <v>14.1143798828125</v>
       </c>
       <c r="M145">
-        <v>19.74844932556152</v>
+        <v>21.35682106018066</v>
       </c>
       <c r="N145">
-        <v>32.90724754333496</v>
+        <v>35.47120094299316</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -11344,19 +11347,19 @@
         <v>17</v>
       </c>
       <c r="D146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F146">
         <v>2</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I146">
         <v>100</v>
@@ -11368,13 +11371,13 @@
         <v>3</v>
       </c>
       <c r="L146">
-        <v>13.15879821777344</v>
+        <v>14.1143798828125</v>
       </c>
       <c r="M146">
-        <v>19.74844932556152</v>
+        <v>21.35682106018066</v>
       </c>
       <c r="N146">
-        <v>32.90724754333496</v>
+        <v>35.47120094299316</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -11388,10 +11391,10 @@
         <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -11400,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I147">
         <v>100</v>
@@ -11412,13 +11415,13 @@
         <v>3</v>
       </c>
       <c r="L147">
-        <v>13.15879821777344</v>
+        <v>14.1143798828125</v>
       </c>
       <c r="M147">
-        <v>19.74844932556152</v>
+        <v>21.35682106018066</v>
       </c>
       <c r="N147">
-        <v>32.90724754333496</v>
+        <v>35.47120094299316</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -11429,13 +11432,13 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -11444,7 +11447,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>100</v>
@@ -11453,16 +11456,16 @@
         <v>10</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L148">
-        <v>15.42401313781738</v>
+        <v>0</v>
       </c>
       <c r="M148">
-        <v>22.00007438659668</v>
+        <v>15.08092880249023</v>
       </c>
       <c r="N148">
-        <v>37.42408752441406</v>
+        <v>15.08092880249023</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -11476,19 +11479,19 @@
         <v>17</v>
       </c>
       <c r="D149" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I149">
         <v>100</v>
@@ -11500,13 +11503,13 @@
         <v>3</v>
       </c>
       <c r="L149">
-        <v>15.42401313781738</v>
+        <v>20.00999450683594</v>
       </c>
       <c r="M149">
-        <v>22.00007438659668</v>
+        <v>32.39703178405762</v>
       </c>
       <c r="N149">
-        <v>37.42408752441406</v>
+        <v>52.40702629089355</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -11520,19 +11523,19 @@
         <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G150" t="b">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>100</v>
@@ -11544,13 +11547,13 @@
         <v>3</v>
       </c>
       <c r="L150">
-        <v>15.42401313781738</v>
+        <v>20.00999450683594</v>
       </c>
       <c r="M150">
-        <v>22.00007438659668</v>
+        <v>32.39703178405762</v>
       </c>
       <c r="N150">
-        <v>37.42408752441406</v>
+        <v>52.40702629089355</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -11561,19 +11564,19 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -11585,148 +11588,16 @@
         <v>10</v>
       </c>
       <c r="K151">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>20.00999450683594</v>
       </c>
       <c r="M151">
-        <v>12.00079917907715</v>
+        <v>32.39703178405762</v>
       </c>
       <c r="N151">
-        <v>12.00079917907715</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
-      <c r="A152" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>17</v>
-      </c>
-      <c r="D152" t="s">
-        <v>39</v>
-      </c>
-      <c r="E152" t="s">
-        <v>39</v>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <v>100</v>
-      </c>
-      <c r="J152">
-        <v>10</v>
-      </c>
-      <c r="K152">
-        <v>3</v>
-      </c>
-      <c r="L152">
-        <v>13.98491859436035</v>
-      </c>
-      <c r="M152">
-        <v>27.04238891601562</v>
-      </c>
-      <c r="N152">
-        <v>41.02730751037598</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
-      <c r="A153" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>17</v>
-      </c>
-      <c r="D153" t="s">
-        <v>39</v>
-      </c>
-      <c r="E153" t="s">
-        <v>24</v>
-      </c>
-      <c r="F153">
-        <v>2</v>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-      <c r="I153">
-        <v>100</v>
-      </c>
-      <c r="J153">
-        <v>10</v>
-      </c>
-      <c r="K153">
-        <v>3</v>
-      </c>
-      <c r="L153">
-        <v>13.98491859436035</v>
-      </c>
-      <c r="M153">
-        <v>27.04238891601562</v>
-      </c>
-      <c r="N153">
-        <v>41.02730751037598</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" t="s">
-        <v>39</v>
-      </c>
-      <c r="E154" t="s">
-        <v>38</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-      <c r="I154">
-        <v>100</v>
-      </c>
-      <c r="J154">
-        <v>10</v>
-      </c>
-      <c r="K154">
-        <v>3</v>
-      </c>
-      <c r="L154">
-        <v>13.98491859436035</v>
-      </c>
-      <c r="M154">
-        <v>27.04238891601562</v>
-      </c>
-      <c r="N154">
-        <v>41.02730751037598</v>
+        <v>52.40702629089355</v>
       </c>
     </row>
   </sheetData>
@@ -11750,16 +11621,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11770,13 +11641,13 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="D2">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="E2">
-        <v>18.94824028015137</v>
+        <v>24.09282684326172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11790,10 +11661,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="E3">
-        <v>26.72147274017334</v>
+        <v>27.66821384429932</v>
       </c>
     </row>
   </sheetData>
